--- a/conf/resources/theatre-tax-relief-template.xlsx
+++ b/conf/resources/theatre-tax-relief-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hmrc.sharepoint.com/teams/GRP042118873/Creative Industries/Creatives Reform 2022/IT Project/Stencils/Existing reliefs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="14_{2C37ACAC-F67B-44B6-AEF0-3DC7DCCC7352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BB3968F-33DC-4C11-BF6C-2AD5349F251D}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="14_{2C37ACAC-F67B-44B6-AEF0-3DC7DCCC7352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{347AB20A-0CDB-4304-9D33-02395E907AA7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1491,6 +1491,45 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
@@ -1560,6 +1599,12 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1577,58 +1622,13 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1636,32 +1636,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2042,6 +2016,32 @@
       </fill>
       <protection locked="1" hidden="1"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{4C4185AE-CEB7-405D-9BE7-3B8D8D8B5811}"/>
@@ -2118,21 +2118,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A5:B6" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A5:B6" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
   <autoFilter ref="A5:B6" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Total Income" totalsRowLabel="Total" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Income of which is a State Aid" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Total Income" totalsRowLabel="Total" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Income of which is a State Aid" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A7:H44" totalsRowCount="1" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A7:H44" totalsRowCount="1" headerRowDxfId="18" dataDxfId="17" totalsRowDxfId="16">
   <autoFilter ref="A7:H43" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2144,18 +2144,18 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Expenditure" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total expenditure" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Non Core Expenditure" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Total Core Expenditure" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Total UK/EEA Core Expenditure" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Total Non UK/EEA Core Expenditure" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Expenditure" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total expenditure" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Non Core Expenditure" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Total Core Expenditure" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Total UK/EEA Core Expenditure" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Total Non UK/EEA Core Expenditure" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>SUM(Table2[Total Non UK/EEA Core Expenditure])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Apportionment basis " totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Apportionment basis " totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>SUM(Table2[[Apportionment basis ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Comments" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Comments" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2440,13 +2440,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="97"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
@@ -2478,13 +2478,13 @@
       <c r="E4" s="63"/>
     </row>
     <row r="5" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="100"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="115"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
@@ -2496,13 +2496,13 @@
       <c r="E6" s="65"/>
     </row>
     <row r="7" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="115"/>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
@@ -2514,13 +2514,13 @@
       <c r="E8" s="65"/>
     </row>
     <row r="9" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="109"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="68" t="s">
@@ -2539,7 +2539,7 @@
       <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="92" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="70"/>
@@ -2577,8 +2577,8 @@
   </sheetPr>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2595,39 +2595,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="106"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="121"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="132"/>
       <c r="D3" s="16" t="s">
         <v>16</v>
       </c>
@@ -2647,11 +2647,11 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="132"/>
       <c r="D4" s="79"/>
       <c r="E4" s="76"/>
       <c r="F4" s="76"/>
@@ -2719,7 +2719,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="122" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2737,7 +2737,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="107"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
@@ -2753,7 +2753,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="107"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="5" t="s">
         <v>34</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="107"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="5" t="s">
         <v>36</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="107"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="5" t="s">
         <v>38</v>
       </c>
@@ -2809,19 +2809,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="8">
-        <f>SUM(F9-E11)</f>
+        <f t="shared" ref="E12:H12" si="0">SUM(E10-E11)</f>
         <v>0</v>
       </c>
       <c r="F12" s="8">
-        <f>SUM(F10-F11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="8">
-        <f>SUM(G10-G11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="8">
-        <f>SUM(H10-H11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="85" t="s">
@@ -2830,7 +2830,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="107"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="107"/>
+      <c r="A14" s="122"/>
       <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
@@ -2891,7 +2891,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="107"/>
+      <c r="A15" s="122"/>
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
@@ -2924,7 +2924,7 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="107"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="5" t="s">
         <v>49</v>
       </c>
@@ -2942,7 +2942,7 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="107"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="5" t="s">
         <v>52</v>
       </c>
@@ -2975,7 +2975,7 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="123" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2993,7 +2993,7 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="109"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="5" t="s">
         <v>58</v>
       </c>
@@ -3009,7 +3009,7 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="109"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="5" t="s">
         <v>60</v>
       </c>
@@ -3025,7 +3025,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="109"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="5" t="s">
         <v>62</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="109"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="5" t="s">
         <v>64</v>
       </c>
@@ -3074,7 +3074,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="109"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="5" t="s">
         <v>67</v>
       </c>
@@ -3107,7 +3107,7 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="109"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="5" t="s">
         <v>70</v>
       </c>
@@ -3140,7 +3140,7 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="109"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="5" t="s">
         <v>71</v>
       </c>
@@ -3168,7 +3168,7 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="109"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="5" t="s">
         <v>72</v>
       </c>
@@ -3195,13 +3195,13 @@
         <f>SUM(H24-H25)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="127" t="s">
+      <c r="I26" s="99" t="s">
         <v>177</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="109"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="5" t="s">
         <v>73</v>
       </c>
@@ -3228,19 +3228,19 @@
         <f>SUM(H17-H26)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="127" t="s">
+      <c r="I27" s="99" t="s">
         <v>178</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="123" t="s">
+      <c r="A28" s="133" t="s">
         <v>166</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="124" t="s">
+      <c r="C28" s="96" t="s">
         <v>65</v>
       </c>
       <c r="D28" s="8">
@@ -3267,11 +3267,11 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="123"/>
+      <c r="A29" s="133"/>
       <c r="B29" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="125" t="s">
+      <c r="C29" s="97" t="s">
         <v>167</v>
       </c>
       <c r="D29" s="8"/>
@@ -3295,11 +3295,11 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="123"/>
+      <c r="A30" s="133"/>
       <c r="B30" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="126" t="s">
+      <c r="C30" s="98" t="s">
         <v>168</v>
       </c>
       <c r="D30" s="8">
@@ -3328,11 +3328,11 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="123"/>
+      <c r="A31" s="133"/>
       <c r="B31" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="127" t="s">
+      <c r="C31" s="99" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="7"/>
@@ -3344,11 +3344,11 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="123"/>
+      <c r="A32" s="133"/>
       <c r="B32" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="125" t="s">
+      <c r="C32" s="97" t="s">
         <v>75</v>
       </c>
       <c r="D32" s="7"/>
@@ -3372,11 +3372,11 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="123"/>
+      <c r="A33" s="133"/>
       <c r="B33" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="97" t="s">
         <v>76</v>
       </c>
       <c r="D33" s="8">
@@ -3405,11 +3405,11 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="123"/>
+      <c r="A34" s="133"/>
       <c r="B34" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="126" t="s">
+      <c r="C34" s="98" t="s">
         <v>171</v>
       </c>
       <c r="D34" s="8">
@@ -3438,11 +3438,11 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="123"/>
+      <c r="A35" s="133"/>
       <c r="B35" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C35" s="127" t="s">
+      <c r="C35" s="99" t="s">
         <v>174</v>
       </c>
       <c r="D35" s="8">
@@ -3469,11 +3469,11 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="123"/>
+      <c r="A36" s="133"/>
       <c r="B36" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C36" s="125" t="s">
+      <c r="C36" s="97" t="s">
         <v>175</v>
       </c>
       <c r="D36" s="8"/>
@@ -3497,11 +3497,11 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="123"/>
+      <c r="A37" s="133"/>
       <c r="B37" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="126" t="s">
+      <c r="C37" s="98" t="s">
         <v>176</v>
       </c>
       <c r="D37" s="8">
@@ -3530,10 +3530,10 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="118" t="s">
+      <c r="A38" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="122" t="s">
+      <c r="B38" s="95" t="s">
         <v>83</v>
       </c>
       <c r="C38" s="72" t="s">
@@ -3550,7 +3550,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="118"/>
+      <c r="A39" s="125"/>
       <c r="B39" s="5" t="s">
         <v>86</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="118"/>
+      <c r="A40" s="125"/>
       <c r="B40" s="5" t="s">
         <v>88</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="118"/>
+      <c r="A41" s="125"/>
       <c r="B41" s="5" t="s">
         <v>90</v>
       </c>
@@ -3641,15 +3641,15 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="118"/>
+      <c r="A42" s="125"/>
       <c r="B42" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -3659,7 +3659,7 @@
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="118"/>
+      <c r="A43" s="125"/>
       <c r="B43" s="21" t="s">
         <v>95</v>
       </c>
@@ -3692,7 +3692,7 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="118"/>
+      <c r="A44" s="125"/>
       <c r="B44" s="23" t="s">
         <v>97</v>
       </c>
@@ -3724,7 +3724,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="118"/>
+      <c r="A45" s="125"/>
       <c r="B45" s="22" t="s">
         <v>99</v>
       </c>
@@ -3756,30 +3756,30 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="119"/>
+      <c r="A46" s="126"/>
       <c r="B46" s="60" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="121">
+      <c r="D46" s="94">
         <f>IF(AND(D5&gt;=$D$64,D5&lt;=$E$64),D44,IF(AND(D5&gt;=$D$65,D5&lt;=$E$65),D45,D43))</f>
         <v>0</v>
       </c>
-      <c r="E46" s="121">
+      <c r="E46" s="94">
         <f>IF(AND(E5&gt;=$D$64,E5&lt;=$E$64),E44,IF(AND(E5&gt;=$D$65,E5&lt;=$E$65),E45,E43))</f>
         <v>0</v>
       </c>
-      <c r="F46" s="121">
+      <c r="F46" s="94">
         <f>IF(AND(F5&gt;=$D$64,F5&lt;=$E$64),F44,IF(AND(F5&gt;=$D$65,F5&lt;=$E$65),F45,F43))</f>
         <v>0</v>
       </c>
-      <c r="G46" s="121">
+      <c r="G46" s="94">
         <f>IF(AND(G5&gt;=$D$64,G5&lt;=$E$64),G44,IF(AND(G5&gt;=$D$65,G5&lt;=$E$65),G45,G43))</f>
         <v>0</v>
       </c>
-      <c r="H46" s="121">
+      <c r="H46" s="94">
         <f>IF(AND(H5&gt;=$D$64,H5&lt;=$E$64),H44,IF(AND(H5&gt;=$D$65,H5&lt;=$E$65),H45,H43))</f>
         <v>0</v>
       </c>
@@ -3788,158 +3788,158 @@
       </c>
     </row>
     <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="131"/>
-      <c r="B47" s="130"/>
-      <c r="C47" s="128"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="129"/>
-      <c r="I47" s="128"/>
+      <c r="A47" s="103"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="100"/>
     </row>
     <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="131"/>
-      <c r="B48" s="130"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="129"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="129"/>
-      <c r="H48" s="129"/>
-      <c r="I48" s="128"/>
+      <c r="A48" s="103"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="100"/>
     </row>
     <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="131"/>
-      <c r="B49" s="130"/>
-      <c r="C49" s="128"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="129"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="128"/>
+      <c r="A49" s="103"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="100"/>
     </row>
     <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="131"/>
-      <c r="B50" s="130"/>
-      <c r="C50" s="128"/>
-      <c r="D50" s="129"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="129"/>
-      <c r="G50" s="129"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="128"/>
+      <c r="A50" s="103"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="100"/>
     </row>
     <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="131"/>
-      <c r="B51" s="130"/>
-      <c r="C51" s="128"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="129"/>
-      <c r="I51" s="128"/>
+      <c r="A51" s="103"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="100"/>
     </row>
     <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="131"/>
-      <c r="B52" s="130"/>
-      <c r="C52" s="128"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="128"/>
+      <c r="A52" s="103"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="100"/>
     </row>
     <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="131"/>
-      <c r="B53" s="130"/>
-      <c r="C53" s="128"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="128"/>
+      <c r="A53" s="103"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="100"/>
     </row>
     <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="131"/>
-      <c r="B54" s="130"/>
-      <c r="C54" s="128"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="128"/>
+      <c r="A54" s="103"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="100"/>
     </row>
     <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="131"/>
-      <c r="B55" s="130"/>
-      <c r="C55" s="128"/>
-      <c r="D55" s="129"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="129"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="128"/>
+      <c r="A55" s="103"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="100"/>
     </row>
     <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="131"/>
-      <c r="B56" s="130"/>
-      <c r="C56" s="128"/>
-      <c r="D56" s="129"/>
-      <c r="E56" s="129"/>
-      <c r="F56" s="129"/>
-      <c r="G56" s="129"/>
-      <c r="H56" s="129"/>
-      <c r="I56" s="128"/>
+      <c r="A56" s="103"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="100"/>
     </row>
     <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="131"/>
-      <c r="B57" s="130"/>
-      <c r="C57" s="128"/>
-      <c r="D57" s="129"/>
-      <c r="E57" s="129"/>
-      <c r="F57" s="129"/>
-      <c r="G57" s="129"/>
-      <c r="H57" s="129"/>
-      <c r="I57" s="128"/>
+      <c r="A57" s="103"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="100"/>
     </row>
     <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="131"/>
-      <c r="B58" s="130"/>
-      <c r="C58" s="128"/>
-      <c r="D58" s="129"/>
-      <c r="E58" s="129"/>
-      <c r="F58" s="129"/>
-      <c r="G58" s="129"/>
-      <c r="H58" s="129"/>
-      <c r="I58" s="128"/>
+      <c r="A58" s="103"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="100"/>
     </row>
     <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="131"/>
-      <c r="B59" s="130"/>
-      <c r="C59" s="128"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="129"/>
-      <c r="G59" s="129"/>
-      <c r="H59" s="129"/>
-      <c r="I59" s="128"/>
+      <c r="A59" s="103"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="100"/>
     </row>
     <row r="60" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="132"/>
-      <c r="B60" s="130"/>
-      <c r="C60" s="133"/>
-      <c r="D60" s="134"/>
-      <c r="E60" s="134"/>
-      <c r="F60" s="134"/>
-      <c r="G60" s="134"/>
-      <c r="H60" s="134"/>
-      <c r="I60" s="133"/>
+      <c r="A60" s="104"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="105"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
@@ -4115,7 +4115,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nHVZGvgcAa2LbWrl5jlhi5vGCwokZ8rWev1S+QBeO27PfjbOB1Dz1hUGpOy04jec5C6BgOPzZWW3awqJNv36QQ==" saltValue="Lfq/VLZ5w/URP7m1qh3RFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="amEXxjG8bC5buvjviHvOfto31/uVWW9bBm2KwaJhqspHkKnVw8ISSUKyd5FU3Jm7UMHqXVwYZwFekAQaD9PylA==" saltValue="WXdchcAPsbldFM8/fCuFgA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
@@ -4129,22 +4129,22 @@
     <mergeCell ref="A28:A37"/>
   </mergeCells>
   <conditionalFormatting sqref="D13:H13">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:H13 D15:H15 D17:H17 D27:H27 D39:H39 D41:H41">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4221,16 +4221,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -4830,12 +4830,12 @@
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="B44">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="notEqual">
       <formula>$B$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="notEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4856,8 +4856,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100350E8E2BB23E2A4AA4EA2615525F2B5A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="196d710fa02d7b8454006001c59ff208">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e4bfe8b-ef84-4e47-853e-31313f64a53a" xmlns:ns3="7058508a-d375-4a1e-a567-7dd1bee321db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2dd5f73807ecc01be09f0551dd16e5ff" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100350E8E2BB23E2A4AA4EA2615525F2B5A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faf6ce0b471c2bc8070abc50707ce808">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e4bfe8b-ef84-4e47-853e-31313f64a53a" xmlns:ns3="7058508a-d375-4a1e-a567-7dd1bee321db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05a7eebf91a8b30bc57d75cce2ce92d5" ns2:_="" ns3:_="">
     <xsd:import namespace="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
     <xsd:import namespace="7058508a-d375-4a1e-a567-7dd1bee321db"/>
     <xsd:element name="properties">
@@ -4873,6 +4888,7 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4908,6 +4924,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="15" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5040,36 +5061,19 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{986A1664-80B2-4C17-BD39-77D167E4291D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40FD1192-5AAE-406E-9A7A-0A683027EAAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7058508a-d375-4a1e-a567-7dd1bee321db"/>
     <ds:schemaRef ds:uri="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
-    <ds:schemaRef ds:uri="7058508a-d375-4a1e-a567-7dd1bee321db"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5083,18 +5087,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40FD1192-5AAE-406E-9A7A-0A683027EAAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7058508a-d375-4a1e-a567-7dd1bee321db"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9EE100C-10DC-404F-8218-C99EE2360E09}"/>
 </file>
--- a/conf/resources/theatre-tax-relief-template.xlsx
+++ b/conf/resources/theatre-tax-relief-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hmrc.sharepoint.com/teams/GRP042118873/Creative Industries/Creatives Reform 2022/IT Project/Stencils/Existing reliefs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="14_{2C37ACAC-F67B-44B6-AEF0-3DC7DCCC7352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{347AB20A-0CDB-4304-9D33-02395E907AA7}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="14_{2C37ACAC-F67B-44B6-AEF0-3DC7DCCC7352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21BA3D8E-A255-492F-8DC6-8C67499E62E5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11856" yWindow="12852" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Theatre Tax Relief Stencil" sheetId="2" r:id="rId1"/>
@@ -2577,8 +2577,8 @@
   </sheetPr>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="E13" s="8">
-        <f>IFERROR(SUM(F9/E9*E8),0)</f>
+        <f t="shared" ref="E13:H13" si="1">IFERROR(SUM(E10/E9*E8),0)</f>
         <v>0</v>
       </c>
       <c r="F13" s="8">
-        <f>IFERROR(SUM(F10/#REF!*F8),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13" s="8">
-        <f>IFERROR(SUM(G10/G9*G8),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H13" s="8">
-        <f>IFERROR(SUM(H10/H9*H8),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="85" t="s">
@@ -3618,7 +3618,10 @@
       <c r="C41" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="10"/>
+      <c r="D41" s="10">
+        <f>MIN(D24-D40, ABS(D39))</f>
+        <v>0</v>
+      </c>
       <c r="E41" s="10">
         <f>MIN(E24-E40, ABS(E39))</f>
         <v>0</v>
@@ -4115,7 +4118,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="amEXxjG8bC5buvjviHvOfto31/uVWW9bBm2KwaJhqspHkKnVw8ISSUKyd5FU3Jm7UMHqXVwYZwFekAQaD9PylA==" saltValue="WXdchcAPsbldFM8/fCuFgA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GKGfGrduCY4WF1ndd8Uy8tdxGT0nZKpVZ/GZ5KPULJ1TNJA2wGwK6AXLvYccEetLRvSGcfr7tSa+RuGQOeLeEA==" saltValue="tGHQzrO6EHGKeB8uw3NBFw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
@@ -4133,7 +4136,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:H13 D15:H15 D17:H17 D27:H27 D39:H39 D41:H41">
+  <conditionalFormatting sqref="D15:H15 D17:H17 D27:H27 D39:H39 D13:H13 D41:H41">
     <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4856,18 +4859,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5062,23 +5065,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40FD1192-5AAE-406E-9A7A-0A683027EAAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7058508a-d375-4a1e-a567-7dd1bee321db"/>
-    <ds:schemaRef ds:uri="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52DB9648-18A1-4AA1-94F7-8C3418CA857E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -5086,6 +5072,38 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40FD1192-5AAE-406E-9A7A-0A683027EAAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7058508a-d375-4a1e-a567-7dd1bee321db"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9EE100C-10DC-404F-8218-C99EE2360E09}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9EE100C-10DC-404F-8218-C99EE2360E09}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
+    <ds:schemaRef ds:uri="7058508a-d375-4a1e-a567-7dd1bee321db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/conf/resources/theatre-tax-relief-template.xlsx
+++ b/conf/resources/theatre-tax-relief-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27813"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hmrc-my.sharepoint.com/personal/peter_atkins_hmrc_gov_uk/Documents/IGR/Creatives/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hmrc.sharepoint.com/teams/GRP045522341/Shared Documents/Growth Creative Reliefs/Support templates/Breakdown &amp; Comp stencils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="8_{EC0DECE7-CD76-4DDB-AFCA-5321B1675D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95ACC9AB-6ABA-4340-87F1-BEB8D97FF87F}"/>
+  <xr:revisionPtr revIDLastSave="471" documentId="8_{EC0DECE7-CD76-4DDB-AFCA-5321B1675D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4CB9101-AB7E-43B0-BD4C-4901EF29DE44}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Theatre Tax Relief Stencil" sheetId="2" r:id="rId1"/>
@@ -86,13 +86,14 @@
     <t>Theatrical Production Company</t>
   </si>
   <si>
+    <t xml:space="preserve">M6 Theatre Company					
+</t>
+  </si>
+  <si>
     <t>Theatrical Production</t>
   </si>
   <si>
     <t>Touring Or Non-touring Production</t>
-  </si>
-  <si>
-    <t>Please Select</t>
   </si>
   <si>
     <t>Accounting period start date</t>
@@ -628,7 +629,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,8 +718,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,8 +786,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1176,19 +1201,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1263,6 +1275,43 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1275,7 +1324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1318,9 +1367,6 @@
     <xf numFmtId="4" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="4" fontId="9" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1398,9 +1444,9 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1528,14 +1574,29 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
@@ -1576,97 +1637,97 @@
       <alignment horizontal="center" vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2698,20 +2759,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="111"/>
+      <c r="A1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2721,75 +2782,75 @@
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="39" customHeight="1">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="118"/>
     </row>
     <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
     </row>
     <row r="6" spans="1:5" ht="56.25" customHeight="1">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="114"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="118"/>
     </row>
     <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="92"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="91"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="108"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="112"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="99"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="98"/>
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="9"/>
@@ -2878,8 +2939,8 @@
   </sheetPr>
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2892,111 +2953,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="118"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="122"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="130" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="121"/>
+    <row r="2" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A2" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="135"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="125"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="130" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="134" t="s">
+      <c r="A3" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="44"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="50"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="50"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="53"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="15.75">
@@ -3020,66 +3081,66 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="71"/>
+      <c r="I9" s="70"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="15.75">
-      <c r="A10" s="122"/>
-      <c r="B10" s="65" t="s">
+      <c r="A10" s="126"/>
+      <c r="B10" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="104"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="71"/>
+      <c r="I10" s="70"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="15.75">
-      <c r="A11" s="122"/>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="126"/>
+      <c r="B11" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="71"/>
+      <c r="I11" s="70"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="15.75">
-      <c r="A12" s="122"/>
-      <c r="B12" s="65" t="s">
+      <c r="A12" s="126"/>
+      <c r="B12" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="104"/>
       <c r="E12" s="17">
-        <f>D13</f>
+        <f>D13+D12</f>
         <v>0</v>
       </c>
       <c r="F12" s="17">
@@ -3094,15 +3155,15 @@
         <f>G12+G13</f>
         <v>0</v>
       </c>
-      <c r="I12" s="71"/>
+      <c r="I12" s="70"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
-      <c r="A13" s="122"/>
-      <c r="B13" s="65" t="s">
+      <c r="A13" s="126"/>
+      <c r="B13" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="57" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="17">
@@ -3125,55 +3186,55 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="70" t="s">
         <v>40</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="122"/>
-      <c r="B14" s="65" t="s">
+      <c r="A14" s="126"/>
+      <c r="B14" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <f>IFERROR(SUM(D11/D10*D9),0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="17">
-        <f>IFERROR(SUM(F10/E10*E9),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="17">
-        <f>IFERROR(SUM(F11/#REF!*F9),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="17">
-        <f>IFERROR(SUM(G11/G10*G9),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="17">
-        <f>IFERROR(SUM(H11/H10*H9),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="71" t="s">
+      <c r="E14" s="16">
+        <f>IFERROR(SUM(E11/E10*E9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" ref="F14:H14" si="1">IFERROR(SUM(F11/F10*F9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="70" t="s">
         <v>43</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
-      <c r="A15" s="122"/>
-      <c r="B15" s="65" t="s">
+      <c r="A15" s="126"/>
+      <c r="B15" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="17">
-        <f>D16</f>
+        <f>D16+D15</f>
         <v>0</v>
       </c>
       <c r="F15" s="17">
@@ -3188,48 +3249,48 @@
         <f>G15+G16</f>
         <v>0</v>
       </c>
-      <c r="I15" s="71"/>
+      <c r="I15" s="70"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="15.75">
-      <c r="A16" s="122"/>
-      <c r="B16" s="65" t="s">
+      <c r="A16" s="126"/>
+      <c r="B16" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <f>SUM(D14-D15)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <f>SUM(E14-E15)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <f>SUM(F14-F15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <f>SUM(G14-G15)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <f>SUM(H14-H15)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="71" t="s">
+      <c r="I16" s="70" t="s">
         <v>48</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="122"/>
-      <c r="B17" s="65" t="s">
+      <c r="A17" s="126"/>
+      <c r="B17" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="55" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="16"/>
@@ -3237,100 +3298,100 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="71" t="s">
+      <c r="I17" s="70" t="s">
         <v>51</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="15.75">
-      <c r="A18" s="122"/>
-      <c r="B18" s="65" t="s">
+      <c r="A18" s="126"/>
+      <c r="B18" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <f>SUM(D16-D13+D17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <f>SUM(E16-E13+E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <f>SUM(F16-F13+F17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <f>SUM(G16-G13+G17)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="16">
         <f>SUM(H16-H13+H17)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="71" t="s">
+      <c r="I18" s="70" t="s">
         <v>54</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="15.75">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="105"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="71"/>
+      <c r="I19" s="70"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="15.75">
-      <c r="A20" s="124"/>
-      <c r="B20" s="65" t="s">
+      <c r="A20" s="128"/>
+      <c r="B20" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="105"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="71"/>
+      <c r="I20" s="70"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75">
-      <c r="A21" s="124"/>
-      <c r="B21" s="65" t="s">
+      <c r="A21" s="128"/>
+      <c r="B21" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="105"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="71"/>
+      <c r="I21" s="70"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75">
-      <c r="A22" s="124"/>
-      <c r="B22" s="65" t="s">
+      <c r="A22" s="128"/>
+      <c r="B22" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="56" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="18"/>
@@ -3338,23 +3399,23 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="71"/>
+      <c r="I22" s="70"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75">
-      <c r="A23" s="124"/>
-      <c r="B23" s="65" t="s">
+      <c r="A23" s="128"/>
+      <c r="B23" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="57" t="s">
         <v>65</v>
       </c>
       <c r="D23" s="19">
-        <f t="shared" ref="D23:E23" si="1">SUM(D21+D22)</f>
+        <f t="shared" ref="D23:E23" si="2">SUM(D21+D22)</f>
         <v>0</v>
       </c>
       <c r="E23" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F23" s="19">
@@ -3369,17 +3430,17 @@
         <f>SUM(H21+H22)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="71" t="s">
+      <c r="I23" s="70" t="s">
         <v>66</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="15.75">
-      <c r="A24" s="124"/>
-      <c r="B24" s="65" t="s">
+      <c r="A24" s="128"/>
+      <c r="B24" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="55" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="19">
@@ -3402,17 +3463,17 @@
         <f>SUM(H23*0.8)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="71" t="s">
+      <c r="I24" s="70" t="s">
         <v>69</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="15.75">
-      <c r="A25" s="124"/>
-      <c r="B25" s="65" t="s">
+      <c r="A25" s="128"/>
+      <c r="B25" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="57" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="19">
@@ -3435,20 +3496,20 @@
         <f>MIN(H21,H24)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="71" t="s">
+      <c r="I25" s="70" t="s">
         <v>72</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="124"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="128"/>
+      <c r="B26" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="105"/>
       <c r="E26" s="19">
         <f>D25</f>
         <v>0</v>
@@ -3465,15 +3526,15 @@
         <f>G25</f>
         <v>0</v>
       </c>
-      <c r="I26" s="71"/>
+      <c r="I26" s="70"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75">
-      <c r="A27" s="124"/>
-      <c r="B27" s="65" t="s">
+      <c r="A27" s="128"/>
+      <c r="B27" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="57" t="s">
         <v>76</v>
       </c>
       <c r="D27" s="19">
@@ -3496,52 +3557,52 @@
         <f>SUM(H25-H26)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="62" t="s">
+      <c r="I27" s="61" t="s">
         <v>77</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75">
-      <c r="A28" s="124"/>
-      <c r="B28" s="65" t="s">
+      <c r="A28" s="128"/>
+      <c r="B28" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <f>SUM(D18-D27)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <f>SUM(E18-E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <f>SUM(F18-F27)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="18">
         <f>SUM(G18-G27)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="18">
         <f>SUM(H18-H27)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="62" t="s">
+      <c r="I28" s="61" t="s">
         <v>80</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75">
-      <c r="A29" s="133" t="s">
+      <c r="A29" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="58" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="17">
@@ -3564,18 +3625,18 @@
         <f>H23</f>
         <v>0</v>
       </c>
-      <c r="I29" s="56"/>
+      <c r="I29" s="55"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="15.75">
-      <c r="A30" s="133"/>
-      <c r="B30" s="65" t="s">
+      <c r="A30" s="137"/>
+      <c r="B30" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="105"/>
       <c r="E30" s="17">
         <f>D29</f>
         <v>0</v>
@@ -3592,15 +3653,15 @@
         <f>G29</f>
         <v>0</v>
       </c>
-      <c r="I30" s="56"/>
+      <c r="I30" s="55"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="15.75">
-      <c r="A31" s="133"/>
-      <c r="B31" s="65" t="s">
+      <c r="A31" s="137"/>
+      <c r="B31" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="60" t="s">
         <v>86</v>
       </c>
       <c r="D31" s="17">
@@ -3623,17 +3684,17 @@
         <f>H29-H30</f>
         <v>0</v>
       </c>
-      <c r="I31" s="56" t="s">
+      <c r="I31" s="55" t="s">
         <v>87</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="15.75">
-      <c r="A32" s="133"/>
-      <c r="B32" s="65" t="s">
+      <c r="A32" s="137"/>
+      <c r="B32" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="61" t="s">
         <v>89</v>
       </c>
       <c r="D32" s="16"/>
@@ -3641,15 +3702,15 @@
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="56"/>
+      <c r="I32" s="55"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="15.75">
-      <c r="A33" s="133"/>
-      <c r="B33" s="65" t="s">
+      <c r="A33" s="137"/>
+      <c r="B33" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="59" t="s">
         <v>91</v>
       </c>
       <c r="D33" s="16"/>
@@ -3669,15 +3730,15 @@
         <f>G32</f>
         <v>0</v>
       </c>
-      <c r="I33" s="56"/>
+      <c r="I33" s="55"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="15.75">
-      <c r="A34" s="133"/>
-      <c r="B34" s="65" t="s">
+      <c r="A34" s="137"/>
+      <c r="B34" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="59" t="s">
         <v>93</v>
       </c>
       <c r="D34" s="17">
@@ -3700,17 +3761,17 @@
         <f>SUM(H32-H33)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="56" t="s">
+      <c r="I34" s="55" t="s">
         <v>94</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="15.75">
-      <c r="A35" s="133"/>
-      <c r="B35" s="65" t="s">
+      <c r="A35" s="137"/>
+      <c r="B35" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="60" t="s">
         <v>96</v>
       </c>
       <c r="D35" s="17">
@@ -3733,17 +3794,17 @@
         <f>H31+H34</f>
         <v>0</v>
       </c>
-      <c r="I35" s="56" t="s">
+      <c r="I35" s="55" t="s">
         <v>97</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="15.75">
-      <c r="A36" s="133"/>
-      <c r="B36" s="65" t="s">
+      <c r="A36" s="137"/>
+      <c r="B36" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="61" t="s">
         <v>99</v>
       </c>
       <c r="D36" s="17">
@@ -3766,18 +3827,18 @@
         <f>H21</f>
         <v>0</v>
       </c>
-      <c r="I36" s="56"/>
+      <c r="I36" s="55"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="15.75">
-      <c r="A37" s="133"/>
-      <c r="B37" s="65" t="s">
+      <c r="A37" s="137"/>
+      <c r="B37" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="17"/>
+      <c r="D37" s="105"/>
       <c r="E37" s="17">
         <f>D36</f>
         <v>0</v>
@@ -3794,15 +3855,15 @@
         <f>G36</f>
         <v>0</v>
       </c>
-      <c r="I37" s="56"/>
+      <c r="I37" s="55"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="15.75">
-      <c r="A38" s="133"/>
-      <c r="B38" s="65" t="s">
+      <c r="A38" s="137"/>
+      <c r="B38" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="60" t="s">
         <v>103</v>
       </c>
       <c r="D38" s="17">
@@ -3825,75 +3886,75 @@
         <f>H36-H37</f>
         <v>0</v>
       </c>
-      <c r="I38" s="56" t="s">
+      <c r="I38" s="55" t="s">
         <v>104</v>
       </c>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="15.75">
-      <c r="A39" s="125" t="s">
+      <c r="A39" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="71" t="s">
+      <c r="I39" s="70" t="s">
         <v>108</v>
       </c>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75">
-      <c r="A40" s="125"/>
-      <c r="B40" s="65" t="s">
+      <c r="A40" s="129"/>
+      <c r="B40" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="18">
         <f>MIN(D28+D39, 0)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="18">
         <f>MIN(E28+E39, 0)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="18">
         <f>MIN(F28+F39, 0)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="18">
         <f>MIN(G28+G39, 0)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="18">
         <f>MIN(H28+H39, 0)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="71" t="s">
+      <c r="I40" s="70" t="s">
         <v>111</v>
       </c>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="15.75">
-      <c r="A41" s="125"/>
-      <c r="B41" s="65" t="s">
+      <c r="A41" s="129"/>
+      <c r="B41" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="18"/>
+      <c r="D41" s="105"/>
       <c r="E41" s="19">
-        <f>D43</f>
+        <f>D43+D41</f>
         <v>0</v>
       </c>
       <c r="F41" s="19">
@@ -3908,66 +3969,66 @@
         <f>G41+G43</f>
         <v>0</v>
       </c>
-      <c r="I41" s="71"/>
+      <c r="I41" s="70"/>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="125"/>
-      <c r="B42" s="65" t="s">
+      <c r="A42" s="129"/>
+      <c r="B42" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="18">
         <f>MIN(D25-D41, ABS(D40))</f>
         <v>0</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="18">
         <f>MIN(E25-E41, ABS(E40))</f>
         <v>0</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="18">
         <f>MIN(F25-F41, ABS(F40))</f>
         <v>0</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="18">
         <f>MIN(G25-G41, ABS(G40))</f>
         <v>0</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="18">
         <f>MIN(H25-H41, ABS(H40))</f>
         <v>0</v>
       </c>
-      <c r="I42" s="71" t="s">
+      <c r="I42" s="70" t="s">
         <v>116</v>
       </c>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" ht="15.75">
-      <c r="A43" s="125"/>
-      <c r="B43" s="65" t="s">
+      <c r="A43" s="129"/>
+      <c r="B43" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
-      <c r="I43" s="71" t="s">
+      <c r="I43" s="70" t="s">
         <v>119</v>
       </c>
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" ht="15.75">
-      <c r="A44" s="125"/>
-      <c r="B44" s="67" t="s">
+      <c r="A44" s="129"/>
+      <c r="B44" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="55" t="s">
         <v>121</v>
       </c>
       <c r="D44" s="19">
@@ -3990,17 +4051,17 @@
         <f>SUM(H43*0.25*(D3="Touring"),H43*0.2*(D3="Non-Touring"))</f>
         <v>0</v>
       </c>
-      <c r="I44" s="71" t="s">
+      <c r="I44" s="70" t="s">
         <v>122</v>
       </c>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" ht="15.75">
-      <c r="A45" s="125"/>
-      <c r="B45" s="68" t="s">
+      <c r="A45" s="129"/>
+      <c r="B45" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="62" t="s">
         <v>124</v>
       </c>
       <c r="D45" s="19">
@@ -4023,16 +4084,16 @@
         <f>SUM(H43*0.5*(D3="Touring"),H43*0.45*(D3="Non-Touring"))</f>
         <v>0</v>
       </c>
-      <c r="I45" s="71" t="s">
+      <c r="I45" s="70" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75">
-      <c r="A46" s="125"/>
-      <c r="B46" s="69" t="s">
+      <c r="A46" s="129"/>
+      <c r="B46" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="62" t="s">
         <v>127</v>
       </c>
       <c r="D46" s="19">
@@ -4055,195 +4116,195 @@
         <f>SUM(H43*0.45*(D3="Touring"),H43*0.4*(D3="Non-Touring"))</f>
         <v>0</v>
       </c>
-      <c r="I46" s="71" t="s">
+      <c r="I46" s="70" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A47" s="126"/>
-      <c r="B47" s="70" t="s">
+      <c r="A47" s="130"/>
+      <c r="B47" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="20">
         <f>IF(D6&lt;D68,IF(D4&gt;=D69,D46,D44),IF(D4&gt;=D69,D46,IF(D4&gt;=D68,D45,D44)))</f>
         <v>0</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="20">
         <f>IF(D6&lt;D68,IF(E4&gt;=D69,E46,E44),IF(E4&gt;=D69,E46,IF(E4&gt;=D68,E45,E44)))</f>
         <v>0</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="20">
         <f>IF(D6&lt;D68,IF(F4&gt;=D69,F46,F44),IF(F4&gt;=D69,F46,IF(F4&gt;=D68,F45,F44)))</f>
         <v>0</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="20">
         <f>IF(D6&lt;D68,IF(G4&gt;=D69,G46,G44),IF(G4&gt;=D69,G46,IF(G4&gt;=D68,G45,G44)))</f>
         <v>0</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="20">
         <f>IF(D6&lt;D68,IF(H4&gt;=D69,H46,H44),IF(H4&gt;=D69,H46,IF(H4&gt;=D68,H45,H44)))</f>
         <v>0</v>
       </c>
-      <c r="I47" s="72" t="s">
+      <c r="I47" s="71" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" hidden="1">
-      <c r="A48" s="22"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="11"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="23"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="22"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" hidden="1">
-      <c r="A49" s="22"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="11"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="23"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="22"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" hidden="1">
-      <c r="A50" s="22"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="11"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="23"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="22"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" hidden="1">
-      <c r="A51" s="22"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="23"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="22"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" hidden="1">
-      <c r="A52" s="22"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="23"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="22"/>
     </row>
     <row r="53" spans="1:9" ht="15.75" hidden="1">
-      <c r="A53" s="22"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="11"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="23"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="22"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" hidden="1">
-      <c r="A54" s="22"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="23"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="22"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" hidden="1">
-      <c r="A55" s="22"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="11"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="23"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="22"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" hidden="1">
-      <c r="A56" s="22"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="11"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="23"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="22"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" hidden="1">
-      <c r="A57" s="22"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="11"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="23"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="22"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" hidden="1">
-      <c r="A58" s="22"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="11"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="23"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="22"/>
     </row>
     <row r="59" spans="1:9" ht="15.75" hidden="1">
-      <c r="A59" s="22"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="11"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="23"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="22"/>
     </row>
     <row r="60" spans="1:9" ht="15.75" hidden="1">
-      <c r="A60" s="22"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="11"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="23"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="22"/>
     </row>
     <row r="61" spans="1:9" s="3" customFormat="1" ht="15.75">
-      <c r="A61" s="25"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="11"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="26"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="25"/>
     </row>
     <row r="62" spans="1:9" ht="15.75">
       <c r="A62" s="10"/>
@@ -4262,10 +4323,10 @@
     </row>
     <row r="63" spans="1:9" ht="15.75">
       <c r="A63" s="10"/>
-      <c r="B63" s="105" t="s">
+      <c r="B63" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="104" t="s">
+      <c r="C63" s="102" t="s">
         <v>135</v>
       </c>
       <c r="D63" s="10"/>
@@ -4278,7 +4339,7 @@
     <row r="64" spans="1:9" ht="15.75">
       <c r="A64" s="10"/>
       <c r="B64" s="11"/>
-      <c r="C64" s="104" t="s">
+      <c r="C64" s="102" t="s">
         <v>136</v>
       </c>
       <c r="D64" s="10"/>
@@ -4290,10 +4351,10 @@
     </row>
     <row r="65" spans="1:9" ht="15.75">
       <c r="A65" s="10"/>
-      <c r="B65" s="105" t="s">
+      <c r="B65" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="104" t="s">
+      <c r="C65" s="102" t="s">
         <v>138</v>
       </c>
       <c r="D65" s="10"/>
@@ -4376,7 +4437,7 @@
       <c r="C70" t="s">
         <v>142</v>
       </c>
-      <c r="E70" s="32">
+      <c r="E70" s="31">
         <v>44495</v>
       </c>
       <c r="F70">
@@ -4426,7 +4487,7 @@
       <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:9" hidden="1">
-      <c r="E76" s="32">
+      <c r="E76" s="31">
         <v>44495</v>
       </c>
       <c r="F76">
@@ -4434,12 +4495,12 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="D78" s="101"/>
+      <c r="D78" s="100"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="D79" s="101"/>
+      <c r="D79" s="100"/>
       <c r="E79" s="5"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -4451,7 +4512,7 @@
       <c r="G80" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/OLdDJ+K/NEocDgk0UqgxmoAucvRZyS/3k4Q08UqP2MmTGMB1DQ7lAtHCaFmsnR63Bba5OYx4YOWiShnnHf+qA==" saltValue="9V5zmnfb/vh5JMiSuxElNA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IsXppZSJ8Vqzgn9betQNNdv9/V4OCOQ6BqyNKMUKLkYGte2+LBTk4s6xu+K9fxKxnOaIHaBU6MGiq47Fo4aoxg==" saltValue="SOX8/ESCyHMxSBobg+9cIg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
@@ -4472,17 +4533,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:H14 D16:H16 D18:H18 D28:H28 D40:H40 D42:H42">
+  <conditionalFormatting sqref="D16:H16 D18:H18 D28:H28 D40:H40 D42:H42 D14:H14">
     <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:E43">
+  <conditionalFormatting sqref="E43">
     <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="7">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:H41" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
@@ -4492,7 +4553,7 @@
     <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40:H40" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Loss Surrendered" error="Loss surrendered cannot be greater than the surrenderable loss (TC4)" sqref="F43:H43 E43" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Loss Surrendered" error="Loss surrendered cannot be greater than the surrenderable loss (TC4)" sqref="E43:H43" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>E42</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Please Select" prompt="Please seelct if the production is touring or non- touring so the stencil can calculate  the correct rate of the tax credit." sqref="D3" xr:uid="{3A63B035-2247-4A44-B3B6-E3F3EC903377}">
@@ -4501,9 +4562,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Please Enter Date" prompt="the date the production phase started will determine the rate of the relief available" sqref="D6" xr:uid="{9BA7D50B-5B07-4429-B004-7DB6DA7BE708}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"Touring,None Touring"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D43" xr:uid="{985BEA20-CE20-4154-87C0-7280F697A3A2}">
-      <formula1>D42</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -4532,630 +4590,630 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="49" style="28" customWidth="1"/>
-    <col min="2" max="2" width="26" style="28" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" style="28" customWidth="1"/>
-    <col min="7" max="7" width="49" style="28" customWidth="1"/>
-    <col min="8" max="8" width="77.7109375" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="49" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26" style="27" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="27" customWidth="1"/>
+    <col min="7" max="7" width="49" style="27" customWidth="1"/>
+    <col min="8" max="8" width="77.7109375" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" hidden="1">
-      <c r="B1" s="29">
+      <c r="B1" s="28">
         <f>SUM(D44,C44)</f>
         <v>0</v>
       </c>
-      <c r="E1" s="29">
+      <c r="E1" s="28">
         <f>SUM(E44,F44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-    </row>
-    <row r="5" spans="1:8" s="34" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" s="33" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="75"/>
-    </row>
-    <row r="7" spans="1:8" s="34" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="74"/>
+    </row>
+    <row r="7" spans="1:8" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="36" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="81"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="80"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="81"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="80"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="81"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="80"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="82"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="81"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="80"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="81"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="80"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="81"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="80"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="81"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="81"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="80"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="81"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="80"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="81"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="80"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="81"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="80"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="81"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="80"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="82"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="81"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="80"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="81"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="82"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="81"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="80"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="82"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="81"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="80"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="82"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="81"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="80"/>
     </row>
     <row r="25" spans="1:8" ht="31.5">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="81"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="80"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="81"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="80"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="81"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="80"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="81"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="81"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="80"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="81"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="80"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="81"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="80"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="81"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="80"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="81"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="80"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="82"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="81"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="80"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="82"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="81"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="80"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="82"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="81"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="80"/>
     </row>
     <row r="37" spans="1:8" ht="47.25">
-      <c r="A37" s="85" t="s">
+      <c r="A37" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="81"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="80"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="83" t="s">
+      <c r="A38" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="81"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="80"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="83" t="s">
+      <c r="A39" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="81"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="80"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="81"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="80"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="B41" s="80"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="81"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="80"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="B42" s="80"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="81"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="80"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="82"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="81"/>
-    </row>
-    <row r="44" spans="1:8" s="34" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A44" s="38" t="s">
+      <c r="A43" s="81"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="80"/>
+    </row>
+    <row r="44" spans="1:8" s="33" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A44" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="B44" s="39">
+      <c r="B44" s="38">
         <f>SUBTOTAL(109,Table2[Total expenditure])</f>
         <v>0</v>
       </c>
-      <c r="C44" s="39">
+      <c r="C44" s="38">
         <f>SUBTOTAL(109,Table2[Non Core Expenditure])</f>
         <v>0</v>
       </c>
-      <c r="D44" s="39">
+      <c r="D44" s="38">
         <f>SUBTOTAL(109,Table2[Total Core Expenditure])</f>
         <v>0</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E44" s="38">
         <f>SUBTOTAL(109,Table2[Total UK/EEA Core Expenditure])</f>
         <v>0</v>
       </c>
-      <c r="F44" s="39">
+      <c r="F44" s="38">
         <f>SUM(Table2[Total Non UK/EEA Core Expenditure])</f>
         <v>0</v>
       </c>
-      <c r="G44" s="39">
+      <c r="G44" s="38">
         <f>SUM(Table2[[Apportionment basis ]])</f>
         <v>0</v>
       </c>
-      <c r="H44" s="40"/>
+      <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="86" t="s">
+      <c r="A45" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="B45" s="87"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-    </row>
-    <row r="46" spans="1:8" s="34" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A46" s="41" t="s">
+      <c r="B45" s="86"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+    </row>
+    <row r="46" spans="1:8" s="33" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A46" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="B46" s="42">
+      <c r="B46" s="41">
         <f>Table2[[#Totals],[Total expenditure]]-B45</f>
         <v>0</v>
       </c>
-      <c r="C46" s="42">
+      <c r="C46" s="41">
         <f>Table2[[#Totals],[Non Core Expenditure]]-C45</f>
         <v>0</v>
       </c>
-      <c r="D46" s="42">
+      <c r="D46" s="41">
         <f>Table2[[#Totals],[Total Core Expenditure]]-D45</f>
         <v>0</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="41">
         <f>Table2[[#Totals],[Total UK/EEA Core Expenditure]]-E45</f>
         <v>0</v>
       </c>
-      <c r="F46" s="42">
+      <c r="F46" s="41">
         <f>Table2[[#Totals],[Total Non UK/EEA Core Expenditure]]-F45</f>
         <v>0</v>
       </c>
-      <c r="G46" s="42">
+      <c r="G46" s="41">
         <f>Table2[[#Totals],[Apportionment basis ]]-G45</f>
         <v>0</v>
       </c>
-      <c r="H46" s="43"/>
+      <c r="H46" s="42"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="27" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="27" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="27" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="31"/>
+      <c r="A104" s="30"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="TqO9XWgO2aegz3sGd5FWHMpxm5MEtidKudfpIcTFa19Nb4uA4vG6zD4/YKSI3aX3K+E3aW4MI7wbGqOin6yBhA==" saltValue="2w6OkRZekffKlWutOp5wGw==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
@@ -5198,15 +5256,29 @@
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43f61a81-08e4-450f-9189-2143ec144f36">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Notes xmlns="43f61a81-08e4-450f-9189-2143ec144f36" xsi:nil="true"/>
+    <Description xmlns="43f61a81-08e4-450f-9189-2143ec144f36" xsi:nil="true"/>
+    <Restricted_x003f_ xmlns="43f61a81-08e4-450f-9189-2143ec144f36">false</Restricted_x003f_>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Date xmlns="43f61a81-08e4-450f-9189-2143ec144f36" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="43f61a81-08e4-450f-9189-2143ec144f36" xsi:nil="true"/>
+    <_x0077_gy3 xmlns="43f61a81-08e4-450f-9189-2143ec144f36" xsi:nil="true"/>
+    <TaxCatchAll xmlns="229aab0b-7173-4521-96dd-bb43636f532e" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100350E8E2BB23E2A4AA4EA2615525F2B5A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faf6ce0b471c2bc8070abc50707ce808">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e4bfe8b-ef84-4e47-853e-31313f64a53a" xmlns:ns3="7058508a-d375-4a1e-a567-7dd1bee321db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05a7eebf91a8b30bc57d75cce2ce92d5" ns2:_="" ns3:_="">
-    <xsd:import namespace="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
-    <xsd:import namespace="7058508a-d375-4a1e-a567-7dd1bee321db"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009FADE49AA34772468ECB203A2ABF3A84" ma:contentTypeVersion="31" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f4d253bc20ba4df7ac9ec746ac7562d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="43f61a81-08e4-450f-9189-2143ec144f36" xmlns:ns3="229aab0b-7173-4521-96dd-bb43636f532e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b47f16e74ed1ec9b37661be9f25fead" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="43f61a81-08e4-450f-9189-2143ec144f36"/>
+    <xsd:import namespace="229aab0b-7173-4521-96dd-bb43636f532e"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -5215,11 +5287,28 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:Description" minOccurs="0"/>
+                <xsd:element ref="ns2:Restricted_x003f_" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:Date" minOccurs="0"/>
+                <xsd:element ref="ns2:_x0077_gy3" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:Notes" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
@@ -5228,7 +5317,21 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2e4bfe8b-ef84-4e47-853e-31313f64a53a" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="29" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="30" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="43f61a81-08e4-450f-9189-2143ec144f36" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -5241,33 +5344,111 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="Description" ma:index="14" nillable="true" ma:displayName="Description" ma:format="Dropdown" ma:internalName="Description">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Restricted_x003f_" ma:index="15" nillable="true" ma:displayName="Restricted?" ma:default="0" ma:format="Dropdown" ma:internalName="Restricted_x003f_">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="16" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="15" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Date" ma:index="20" nillable="true" ma:displayName="Date" ma:format="DateOnly" ma:internalName="Date">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_x0077_gy3" ma:index="21" nillable="true" ma:displayName="Text" ma:internalName="_x0077_gy3">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="24" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Notes" ma:index="25" nillable="true" ma:displayName="Notes" ma:description="Relates to the current status of a document" ma:format="Dropdown" ma:internalName="Notes">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="27" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a3ebb39f-d69b-4575-80f5-9912993956e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="31" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="32" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="33" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7058508a-d375-4a1e-a567-7dd1bee321db" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="229aab0b-7173-4521-96dd-bb43636f532e" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -5286,12 +5467,23 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="28" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{085845f4-f9e3-4de0-9bcd-bb6dc0918d80}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="229aab0b-7173-4521-96dd-bb43636f532e">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -5402,5 +5594,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9EE100C-10DC-404F-8218-C99EE2360E09}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70D25BA2-7485-4C39-A48A-E003B4D4A8DD}"/>
 </file>